--- a/test cases/import letter of credit test case of bank side.xlsx
+++ b/test cases/import letter of credit test case of bank side.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10459D35-C441-47E1-9972-BAE943DADBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98D2C13-9EA1-4E63-977E-FE2DED4BE2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <r>
       <t>System Name</t>
@@ -116,13 +116,6 @@
     <t>in the disabled branch name field, we need this field to be compatible with the branch of customer account id, for ex:the customer account id in Aleppo branch, then the branch name field should be filled atomatically by the name of aleppo branch.</t>
   </si>
   <si>
-    <t>document details: we have the following scenario:
-as you know, the document usually recieved in two sets(or two mails), so we need for each document to mention the original and the copies in each mail separately, this case is not possible to do now.
-so i can suggest the best way to implement it,
-we want to change the field 'number of set' to be drop list and its name 'mail number' or 'set number'.
-in this case we can input the details of specific document, by selecting the required document from description field, and then select the mail number from drop list then enter the original and the copy of received and office copy and add them,and then repeat the input for the second mail.</t>
-  </si>
-  <si>
     <t>FOB value to be optional.</t>
   </si>
   <si>
@@ -143,9 +136,6 @@
   </si>
   <si>
     <t>lc payment, with adding new oup charges.</t>
-  </si>
-  <si>
-    <t>we could not add new oup charge, because some mandatory disabled fields left blank, check it.</t>
   </si>
   <si>
     <t xml:space="preserve">lc amendment </t>
@@ -222,9 +212,6 @@
     <t>1- 46A: when we break the lines, the new lines are not reflected in the swift, it consider all of them as a one line.(please check the event fields and how to reflected in the swift avoiding of like this bug).</t>
   </si>
   <si>
-    <t>1- license number and 48 narrative field should be longer.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 1- inco term field:CIP to be added.
 2- mode of transport: multiple mode required(the same as pre-advise).
@@ -247,9 +234,6 @@
 'not allowed'. </t>
   </si>
   <si>
-    <t>will check it with the bank team.</t>
-  </si>
-  <si>
     <t>Test scenario</t>
   </si>
   <si>
@@ -273,13 +257,70 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1- 48field should by default contain the sentence 'Document must be presented within 21 days from shipping document date and within the validity of the L/C'.
-2- in the voucher: narration should be for the margin DR account row-&gt;'customer debit account', and for margin CR account row should be 'margin credit account'.
-3- 46A field:no ability to break the line.
+    <t>remove 'payment type' field from this event.</t>
+  </si>
+  <si>
+    <t>document details: we have the following scenario:
+as you know, the document usually recieved in two sets(or two mails) or more, so we need for each set to mention the original and the copies in each mail separately, this case is not possible to do now.
+so i can suggest the best way to implement it,
+we want to change the field 'number of set' to be drop list and its name 'mail number' or 'set number'.
+in this case we can input the details of specific document, by selecting the required document from description field, and then select the mail number from drop list then enter the original and the copy of received and office copy and add them,and then repeat the input for the second mail.</t>
+  </si>
+  <si>
+    <t>we could not add new oup charge,it needs configuration.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1- 48field should by default contain the sentence 'Document must be presented within 21 days from shipping document date and within the validity of the L/C'.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>remove 'payment type' field from this event.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2- in the voucher: narration should be for the margin DR account row-&gt;'customer debit account', and for margin CR account row should be 'margin credit account'.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3- 46A field:no ability to break the line.</t>
+    </r>
+  </si>
+  <si>
+    <t>1- 48 narrative field should be longer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lc advise event(the normal scenario) </t>
+  </si>
+  <si>
+    <t>the allowed length of licence number field should be at least 9 charecters</t>
   </si>
 </sst>
 </file>
@@ -290,7 +331,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;?_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +391,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +449,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -505,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -556,6 +617,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,18 +899,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
     <col min="5" max="6" width="33" style="13" customWidth="1"/>
     <col min="7" max="7" width="24" style="13" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
@@ -895,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>6</v>
@@ -907,10 +969,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="141" customHeight="1">
@@ -924,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="11">
         <v>45326</v>
@@ -960,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="11">
         <v>45328</v>
@@ -974,11 +1036,11 @@
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E8" s="11">
         <v>45328</v>
@@ -989,11 +1051,9 @@
       <c r="G8" s="13">
         <v>45347</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="90">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="75">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1001,10 +1061,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="11">
         <v>45328</v>
@@ -1027,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="11">
         <v>45329</v>
@@ -1043,10 +1103,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="11">
         <v>45329</v>
@@ -1066,10 +1126,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" s="11">
         <v>45329</v>
@@ -1092,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="11">
         <v>45330</v>
@@ -1106,11 +1166,11 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="11">
         <v>45330</v>
@@ -1122,7 +1182,7 @@
         <v>45347</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="63" customHeight="1">
@@ -1133,10 +1193,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="11">
         <v>45330</v>
@@ -1166,7 +1226,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="90">
+    <row r="17" spans="1:7" ht="75">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1184,7 +1244,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1202,7 +1262,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1220,7 +1280,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="120">
+    <row r="20" spans="1:7" ht="105">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1231,14 +1291,14 @@
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="11">
         <v>45334</v>
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" ht="240">
+    <row r="21" spans="1:7" ht="195">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1249,14 +1309,14 @@
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E21" s="11">
         <v>45334</v>
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1267,14 +1327,14 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="11">
         <v>45334</v>
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1285,14 +1345,14 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="11">
         <v>45334</v>
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1303,175 +1363,200 @@
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E24" s="11">
         <v>45335</v>
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:7" ht="30">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
+      <c r="C25" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="11">
         <v>45335</v>
       </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" ht="30">
+      <c r="F25" s="11">
+        <v>45357</v>
+      </c>
+      <c r="G25" s="13">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E26" s="11">
         <v>45337</v>
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" ht="57">
+    <row r="27" spans="1:7" ht="57">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E27" s="12">
         <v>45337</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="60">
+    <row r="28" spans="1:7" ht="60">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" s="11">
         <v>45337</v>
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" ht="46.5" customHeight="1">
+    <row r="29" spans="1:7" ht="46.5" customHeight="1">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E29" s="11">
         <v>45342</v>
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11">
         <v>45342</v>
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E31" s="11">
         <v>45342</v>
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" ht="195">
+    <row r="32" spans="1:7" ht="195">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="11">
         <v>45344</v>
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" ht="75">
+    <row r="33" spans="1:6" ht="45">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E33" s="13">
         <v>45350</v>
       </c>
       <c r="F33" s="13">
         <v>45350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="13">
+        <v>45357</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45357</v>
       </c>
     </row>
   </sheetData>
